--- a/stock_historical_data/1wk/XPROINDIA.NS.xlsx
+++ b/stock_historical_data/1wk/XPROINDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1054"/>
+  <dimension ref="A1:R1089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -59317,7 +59317,7 @@
         <v>23</v>
       </c>
       <c r="O1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1051" t="n">
         <v>0</v>
@@ -59437,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59483,7 +59485,7 @@
         <v>26</v>
       </c>
       <c r="O1054" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1054" t="n">
         <v>0</v>
@@ -59491,7 +59493,1829 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1008.847730216312</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1012.939645672506</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>973.6675518030793</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>980.6536865234375</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>102465</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>983.7974600724987</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>1049.217669603046</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>969.1265651475054</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1019.027526855469</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>185113</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1022.770138881728</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1066.782761838067</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>988.1387990709017</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1007.700012207031</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>182191</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1014.237035174758</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1045.924145498791</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>965.1344772299396</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1015.085327148438</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>147711</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1050.25</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>970.0999755859375</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>985.9500122070312</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>171690</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>975</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>941.2999877929688</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>248428</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>1040.050048828125</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>1133.550048828125</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>218896</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>1133.550048828125</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>1238.800048828125</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1133.550048828125</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1219.949951171875</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>265378</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>1238.849975585938</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>1172</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1185.449951171875</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>125460</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>1196.599975585938</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>1152.449951171875</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>73718</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>1135.550048828125</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>1179.25</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>118280</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>1186.900024414062</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>1062.599975585938</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>1133.599975585938</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>210014</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>1111.050048828125</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>1127.800048828125</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>79604</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>1127.800048828125</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>1168.900024414062</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>1092.25</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>94257</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>1098.550048828125</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>1120.900024414062</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>1048</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>1098.949951171875</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>72976</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>1069.150024414062</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>1160.650024414062</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>110649</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1172.150024414062</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>1015.099975585938</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>124451</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>1026.550048828125</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>1159.400024414062</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>1002.25</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1144.75</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>131507</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>1072.550048828125</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>1141.300048828125</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>133072</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>1095.349975585938</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>81467</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>1077.050048828125</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>1146.050048828125</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>90316</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>1148.900024414062</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>1498.550048828125</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>1148.900024414062</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>1475.900024414062</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>995154</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>1593.550048828125</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>444325</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>1593.550048828125</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>1474.699951171875</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1480.25</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>209803</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>1677</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>1467.050048828125</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1542.699951171875</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>211799</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>1589.800048828125</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>1639.5</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>1505.699951171875</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1540.400024414062</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>150175</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>1561.699951171875</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>1625.050048828125</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1524.5</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>123412</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>1546.650024414062</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>1465.550048828125</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>1496.599975585938</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>147986</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>1282.349975585938</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>1341.150024414062</v>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="n">
+        <v>204926</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>1342.150024414062</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>1373.800048828125</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>1280.400024414062</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>1296.699951171875</v>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="n">
+        <v>90527</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>1293.349975585938</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>1264.449951171875</v>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="n">
+        <v>382239</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>1288.400024414062</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>1191.050048828125</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>1241.25</v>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="n">
+        <v>88298</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>1176.300048828125</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>1292</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>1147.650024414062</v>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="n">
+        <v>372851</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>1148</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>1198.75</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>1080.199951171875</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>1153.050048828125</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>113853</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>1135.75</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>1168.949951171875</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>1043.849975585938</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>109288</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
